--- a/docs/终端协议.xlsx
+++ b/docs/终端协议.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="241">
   <si>
     <t>头部</t>
   </si>
@@ -734,6 +734,12 @@
   </si>
   <si>
     <t>定时上报间隔（秒）</t>
+  </si>
+  <si>
+    <t>ota_reboot_after_check</t>
+  </si>
+  <si>
+    <t>检查OTA更新后是否重启</t>
   </si>
 </sst>
 </file>
@@ -1980,10 +1986,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:B138"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2026,7 +2032,7 @@
       <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
@@ -2038,7 +2044,7 @@
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
@@ -2050,7 +2056,7 @@
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
@@ -2062,7 +2068,7 @@
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
@@ -2074,7 +2080,7 @@
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
@@ -2086,7 +2092,7 @@
       <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
@@ -2098,7 +2104,7 @@
       <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
@@ -2110,7 +2116,7 @@
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
@@ -2122,7 +2128,7 @@
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
@@ -2134,7 +2140,7 @@
       <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
@@ -2146,7 +2152,7 @@
       <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
@@ -2158,7 +2164,7 @@
       <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
@@ -2170,7 +2176,7 @@
       <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
@@ -2182,7 +2188,7 @@
       <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
@@ -2194,7 +2200,7 @@
       <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
@@ -2206,7 +2212,7 @@
       <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
@@ -2218,7 +2224,7 @@
       <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
@@ -2230,7 +2236,7 @@
       <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
@@ -2242,7 +2248,7 @@
       <c r="C21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
@@ -3475,6 +3481,18 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B140" s="6">
+        <v>61090</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D140" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/终端协议.xlsx
+++ b/docs/终端协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="协议格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="258">
   <si>
     <t>头部</t>
   </si>
@@ -304,6 +304,12 @@
     <t>WIFI PASS DEV</t>
   </si>
   <si>
+    <t>wifi_ip</t>
+  </si>
+  <si>
+    <t>WIFI连接后的IP</t>
+  </si>
+  <si>
     <t>intranet_mqtt_ip</t>
   </si>
   <si>
@@ -740,6 +746,53 @@
   </si>
   <si>
     <t>检查OTA更新后是否重启</t>
+  </si>
+  <si>
+    <t>reboot_start_type</t>
+  </si>
+  <si>
+    <t>重启类型：0硬重启，1软重启
+用于下次启动判断软硬重启。同步reboot_type后重置0</t>
+  </si>
+  <si>
+    <t>上线上报后清除保存</t>
+  </si>
+  <si>
+    <t>reboot_type</t>
+  </si>
+  <si>
+    <t>第2字节：0硬重启(正数)，1软重启(负数)
+第1字节：0硬重启，1软重启，2GPIO重启</t>
+  </si>
+  <si>
+    <t>reboot_hard_count</t>
+  </si>
+  <si>
+    <t>硬重启次数</t>
+  </si>
+  <si>
+    <t>reboot_soft_count</t>
+  </si>
+  <si>
+    <t>软重启次数</t>
+  </si>
+  <si>
+    <t>reboot_gpio_count</t>
+  </si>
+  <si>
+    <t>GPIO重启次数</t>
+  </si>
+  <si>
+    <t>wifi_connect_count</t>
+  </si>
+  <si>
+    <t>WIFI连上次数</t>
+  </si>
+  <si>
+    <t>mqtt_connect_count</t>
+  </si>
+  <si>
+    <t>MQTT上线次数</t>
   </si>
 </sst>
 </file>
@@ -747,10 +800,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -762,7 +815,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,14 +829,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,34 +888,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,20 +929,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -892,20 +952,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,7 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +997,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +1033,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,19 +1081,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,19 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,25 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,43 +1159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,26 +1169,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1129,6 +1188,30 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1183,6 +1266,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,15 +1344,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1277,10 +1360,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,137 +1372,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,7 +1521,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1447,28 +1536,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,142 +1916,142 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
@@ -1986,17 +2087,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2489,37 +2590,37 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="6">
+        <v>60016</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="6">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="5">
-        <v>60040</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="5">
-        <v>64</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="5">
-        <v>60041</v>
+        <v>60040</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="5">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2527,7 +2628,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="5">
-        <v>60042</v>
+        <v>60041</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>100</v>
@@ -2541,7 +2642,7 @@
         <v>101</v>
       </c>
       <c r="B46" s="5">
-        <v>60043</v>
+        <v>60042</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>102</v>
@@ -2555,7 +2656,7 @@
         <v>103</v>
       </c>
       <c r="B47" s="5">
-        <v>60044</v>
+        <v>60043</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>104</v>
@@ -2569,7 +2670,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="5">
-        <v>60045</v>
+        <v>60044</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>106</v>
@@ -2578,46 +2679,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="5">
+        <v>60045</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="5">
-        <v>60500</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="5">
+        <v>60500</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="5">
-        <v>60501</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2625,13 +2726,13 @@
         <v>113</v>
       </c>
       <c r="B53" s="5">
-        <v>60502</v>
+        <v>60501</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2639,61 +2740,63 @@
         <v>115</v>
       </c>
       <c r="B54" s="5">
-        <v>60503</v>
+        <v>60502</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="5">
+        <v>60503</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="5">
+      <c r="D55" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="5">
         <v>60504</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+      <c r="C56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="5">
-        <v>61000</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B66" s="5">
-        <v>61001</v>
+        <v>61000</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>125</v>
@@ -2705,7 +2808,7 @@
         <v>126</v>
       </c>
       <c r="B67" s="5">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>127</v>
@@ -2717,7 +2820,7 @@
         <v>128</v>
       </c>
       <c r="B68" s="5">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>129</v>
@@ -2729,7 +2832,7 @@
         <v>130</v>
       </c>
       <c r="B69" s="5">
-        <v>61004</v>
+        <v>61003</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>131</v>
@@ -2741,7 +2844,7 @@
         <v>132</v>
       </c>
       <c r="B70" s="5">
-        <v>61005</v>
+        <v>61004</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>133</v>
@@ -2749,21 +2852,21 @@
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="5">
+        <v>61005</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" s="5">
-        <v>61006</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4">
@@ -2771,7 +2874,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="5">
-        <v>61007</v>
+        <v>61006</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>137</v>
@@ -2783,7 +2886,7 @@
         <v>138</v>
       </c>
       <c r="B74" s="5">
-        <v>61008</v>
+        <v>61007</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>139</v>
@@ -2795,7 +2898,7 @@
         <v>140</v>
       </c>
       <c r="B75" s="5">
-        <v>61009</v>
+        <v>61008</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>141</v>
@@ -2807,7 +2910,7 @@
         <v>142</v>
       </c>
       <c r="B76" s="5">
-        <v>61010</v>
+        <v>61009</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>143</v>
@@ -2819,7 +2922,7 @@
         <v>144</v>
       </c>
       <c r="B77" s="5">
-        <v>61011</v>
+        <v>61010</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>145</v>
@@ -2827,21 +2930,21 @@
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="5">
+        <v>61011</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" s="5">
-        <v>61012</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4">
@@ -2849,7 +2952,7 @@
         <v>148</v>
       </c>
       <c r="B80" s="5">
-        <v>61013</v>
+        <v>61012</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>149</v>
@@ -2861,7 +2964,7 @@
         <v>150</v>
       </c>
       <c r="B81" s="5">
-        <v>61014</v>
+        <v>61013</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>151</v>
@@ -2869,21 +2972,21 @@
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="A82" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="5">
+        <v>61014</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="5">
-        <v>61015</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4">
@@ -2891,7 +2994,7 @@
         <v>154</v>
       </c>
       <c r="B84" s="5">
-        <v>61016</v>
+        <v>61015</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>155</v>
@@ -2899,21 +3002,21 @@
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="5">
+        <v>61016</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B86" s="5">
-        <v>61017</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4">
@@ -2921,7 +3024,7 @@
         <v>158</v>
       </c>
       <c r="B87" s="5">
-        <v>61018</v>
+        <v>61017</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>159</v>
@@ -2929,21 +3032,21 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="A88" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="5">
+        <v>61018</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B89" s="5">
-        <v>61019</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4">
@@ -2951,7 +3054,7 @@
         <v>162</v>
       </c>
       <c r="B90" s="5">
-        <v>61020</v>
+        <v>61019</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>163</v>
@@ -2963,7 +3066,7 @@
         <v>164</v>
       </c>
       <c r="B91" s="5">
-        <v>61021</v>
+        <v>61020</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>165</v>
@@ -2975,7 +3078,7 @@
         <v>166</v>
       </c>
       <c r="B92" s="5">
-        <v>61022</v>
+        <v>61021</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>167</v>
@@ -2987,7 +3090,7 @@
         <v>168</v>
       </c>
       <c r="B93" s="5">
-        <v>61023</v>
+        <v>61022</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>169</v>
@@ -2999,7 +3102,7 @@
         <v>170</v>
       </c>
       <c r="B94" s="5">
-        <v>61024</v>
+        <v>61023</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>171</v>
@@ -3007,21 +3110,21 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="5">
+        <v>61024</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B96" s="5">
-        <v>61025</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4">
@@ -3029,7 +3132,7 @@
         <v>174</v>
       </c>
       <c r="B97" s="5">
-        <v>61026</v>
+        <v>61025</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>175</v>
@@ -3041,7 +3144,7 @@
         <v>176</v>
       </c>
       <c r="B98" s="5">
-        <v>61027</v>
+        <v>61026</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>177</v>
@@ -3049,32 +3152,32 @@
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="5">
+        <v>61027</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B100" s="5">
-        <v>61028</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B101" s="5">
-        <v>61029</v>
+        <v>61028</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D101" s="5"/>
     </row>
@@ -3083,7 +3186,7 @@
         <v>181</v>
       </c>
       <c r="B102" s="5">
-        <v>61030</v>
+        <v>61029</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>182</v>
@@ -3091,21 +3194,21 @@
       <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="5">
+        <v>61030</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B104" s="5">
-        <v>61031</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4">
@@ -3113,7 +3216,7 @@
         <v>185</v>
       </c>
       <c r="B105" s="5">
-        <v>61032</v>
+        <v>61031</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>186</v>
@@ -3125,7 +3228,7 @@
         <v>187</v>
       </c>
       <c r="B106" s="5">
-        <v>61033</v>
+        <v>61032</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>188</v>
@@ -3137,31 +3240,31 @@
         <v>189</v>
       </c>
       <c r="B107" s="5">
-        <v>61034</v>
+        <v>61033</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" s="5">
+        <v>61034</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D108" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-    </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B109" s="5">
-        <v>61035</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>192</v>
-      </c>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4">
@@ -3169,7 +3272,7 @@
         <v>193</v>
       </c>
       <c r="B110" s="5">
-        <v>61036</v>
+        <v>61035</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>194</v>
@@ -3177,9 +3280,15 @@
       <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
+      <c r="A111" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" s="5">
+        <v>61036</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4">
@@ -3189,15 +3298,9 @@
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B113" s="5">
-        <v>61040</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4">
@@ -3205,7 +3308,7 @@
         <v>197</v>
       </c>
       <c r="B114" s="5">
-        <v>61041</v>
+        <v>61040</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>198</v>
@@ -3217,7 +3320,7 @@
         <v>199</v>
       </c>
       <c r="B115" s="5">
-        <v>61042</v>
+        <v>61041</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>200</v>
@@ -3229,7 +3332,7 @@
         <v>201</v>
       </c>
       <c r="B116" s="5">
-        <v>61043</v>
+        <v>61042</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>202</v>
@@ -3237,21 +3340,21 @@
       <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+      <c r="A117" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" s="5">
+        <v>61043</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="5">
-        <v>61050</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>204</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4">
@@ -3259,7 +3362,7 @@
         <v>205</v>
       </c>
       <c r="B119" s="5">
-        <v>61051</v>
+        <v>61050</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>206</v>
@@ -3271,7 +3374,7 @@
         <v>207</v>
       </c>
       <c r="B120" s="5">
-        <v>61052</v>
+        <v>61051</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>208</v>
@@ -3283,7 +3386,7 @@
         <v>209</v>
       </c>
       <c r="B121" s="5">
-        <v>61053</v>
+        <v>61052</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>210</v>
@@ -3295,7 +3398,7 @@
         <v>211</v>
       </c>
       <c r="B122" s="5">
-        <v>61054</v>
+        <v>61053</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>212</v>
@@ -3307,7 +3410,7 @@
         <v>213</v>
       </c>
       <c r="B123" s="5">
-        <v>61055</v>
+        <v>61054</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>214</v>
@@ -3319,7 +3422,7 @@
         <v>215</v>
       </c>
       <c r="B124" s="5">
-        <v>61056</v>
+        <v>61055</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>216</v>
@@ -3327,21 +3430,21 @@
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+      <c r="A125" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B125" s="5">
+        <v>61056</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B126" s="5">
-        <v>61060</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4">
@@ -3349,7 +3452,7 @@
         <v>219</v>
       </c>
       <c r="B127" s="5">
-        <v>61061</v>
+        <v>61060</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>220</v>
@@ -3361,7 +3464,7 @@
         <v>221</v>
       </c>
       <c r="B128" s="5">
-        <v>61062</v>
+        <v>61061</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>222</v>
@@ -3373,7 +3476,7 @@
         <v>223</v>
       </c>
       <c r="B129" s="5">
-        <v>61063</v>
+        <v>61062</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>224</v>
@@ -3385,7 +3488,7 @@
         <v>225</v>
       </c>
       <c r="B130" s="5">
-        <v>61064</v>
+        <v>61063</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>226</v>
@@ -3397,7 +3500,7 @@
         <v>227</v>
       </c>
       <c r="B131" s="5">
-        <v>61065</v>
+        <v>61064</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>228</v>
@@ -3409,7 +3512,7 @@
         <v>229</v>
       </c>
       <c r="B132" s="5">
-        <v>61066</v>
+        <v>61065</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>230</v>
@@ -3417,21 +3520,21 @@
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
+      <c r="A133" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" s="5">
+        <v>61066</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B134" s="5">
-        <v>61070</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>232</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4">
@@ -3439,7 +3542,7 @@
         <v>233</v>
       </c>
       <c r="B135" s="5">
-        <v>61071</v>
+        <v>61070</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>234</v>
@@ -3447,21 +3550,21 @@
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="A136" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B136" s="5">
+        <v>61071</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B137" s="5">
-        <v>61080</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>236</v>
-      </c>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4">
@@ -3469,7 +3572,7 @@
         <v>237</v>
       </c>
       <c r="B138" s="5">
-        <v>61081</v>
+        <v>61080</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>238</v>
@@ -3477,26 +3580,137 @@
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
+      <c r="A139" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B139" s="5">
+        <v>61081</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B140" s="6">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" s="5">
         <v>61090</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D140" s="6"/>
+      <c r="C141" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" ht="46" customHeight="1" spans="1:4">
+      <c r="A143" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B143" s="8">
+        <v>61098</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" ht="46" customHeight="1" spans="1:4">
+      <c r="A144" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B144" s="8">
+        <v>61099</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D144" s="10"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B145" s="8">
+        <v>61100</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D145" s="10"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B146" s="8">
+        <v>61101</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D146" s="10"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B147" s="8">
+        <v>61102</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D147" s="10"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="10"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B149" s="11">
+        <v>61105</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D149" s="10"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B150" s="11">
+        <v>61106</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D150" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D143:D150"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
